--- a/biology/Médecine/Mésangium/Mésangium.xlsx
+++ b/biology/Médecine/Mésangium/Mésangium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9sangium</t>
+          <t>Mésangium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mésangium est une structure du glomérule rénal associée aux capillaires et en continuité avec les muscles lisses des artérioles. Comme son nom l'indique, il est situé parmi (meso) les capillaires (angium), mais à l'extérieur de leur lumière et à l'intérieur de la membrane basale du glomérule, qui enveloppe à la fois les capillaires et le mésangium[1]. Ce dernier assure de multiples fonctions dans le glomérule, notamment en assurant un soutien structurel aux capillaires et en participant à la régulation de la filtration[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mésangium est une structure du glomérule rénal associée aux capillaires et en continuité avec les muscles lisses des artérioles. Comme son nom l'indique, il est situé parmi (meso) les capillaires (angium), mais à l'extérieur de leur lumière et à l'intérieur de la membrane basale du glomérule, qui enveloppe à la fois les capillaires et le mésangium. Ce dernier assure de multiples fonctions dans le glomérule, notamment en assurant un soutien structurel aux capillaires et en participant à la régulation de la filtration.
 A. Corpuscule rénal, bleu ciel
 B. Tubule proximal, orange à droite
 C. Tube contourné distal, violet à gauche
